--- a/Project/RCC_PM_RiskManagementLog.xlsx
+++ b/Project/RCC_PM_RiskManagementLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT - VLU\Môn Học Năm 3\HK2\SEP\K21T2-Team1-SEP-FinalProject\K21T2-Team1-Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vienthong\Desktop\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -456,9 +456,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -516,24 +513,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,6 +522,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,11 +549,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,136 +864,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="9" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="27.7109375" style="10" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="11" style="8" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="10" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
+    </row>
+    <row r="3" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="33"/>
-    </row>
-    <row r="4" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="38" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="33"/>
-    </row>
-    <row r="5" spans="1:13" s="25" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="1:13" s="24" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1002,10 +1002,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -1019,7 +1019,7 @@
       <c r="G6" s="4">
         <v>0.2</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>2</v>
       </c>
       <c r="I6" s="2">
@@ -1029,8 +1029,8 @@
       <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="6" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -1041,11 +1041,11 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1059,7 +1059,7 @@
       <c r="G7" s="4">
         <v>0.4</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>4</v>
       </c>
       <c r="I7" s="2">
@@ -1069,8 +1069,8 @@
       <c r="J7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="6" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="5" t="s">
         <v>56</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -1081,11 +1081,11 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
@@ -1099,7 +1099,7 @@
       <c r="G8" s="4">
         <v>0.2</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>2</v>
       </c>
       <c r="I8" s="2">
@@ -1109,23 +1109,23 @@
       <c r="J8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="13" t="s">
+      <c r="K8" s="16"/>
+      <c r="L8" s="12" t="s">
         <v>36</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -1139,7 +1139,7 @@
       <c r="G9" s="4">
         <v>0.3</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>3</v>
       </c>
       <c r="I9" s="2">
@@ -1149,23 +1149,23 @@
       <c r="J9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="6" t="s">
+      <c r="K9" s="17"/>
+      <c r="L9" s="5" t="s">
         <v>57</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
@@ -1179,7 +1179,7 @@
       <c r="G10" s="4">
         <v>0.35</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>4</v>
       </c>
       <c r="I10" s="2">
@@ -1189,8 +1189,8 @@
       <c r="J10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="6" t="s">
+      <c r="K10" s="17"/>
+      <c r="L10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="2" t="s">
@@ -1201,11 +1201,11 @@
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>25</v>
@@ -1219,7 +1219,7 @@
       <c r="G11" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>4</v>
       </c>
       <c r="I11" s="2">
@@ -1229,8 +1229,8 @@
       <c r="J11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="6" t="s">
+      <c r="K11" s="18"/>
+      <c r="L11" s="5" t="s">
         <v>58</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -1241,11 +1241,11 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>25</v>
@@ -1259,7 +1259,7 @@
       <c r="G12" s="4">
         <v>0.45</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>4</v>
       </c>
       <c r="I12" s="2">
@@ -1269,8 +1269,8 @@
       <c r="J12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="6" t="s">
+      <c r="K12" s="18"/>
+      <c r="L12" s="5" t="s">
         <v>59</v>
       </c>
       <c r="M12" s="2" t="s">
@@ -1282,10 +1282,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>25</v>
@@ -1299,7 +1299,7 @@
       <c r="G13" s="4">
         <v>0.6</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>3</v>
       </c>
       <c r="I13" s="2">
@@ -1309,8 +1309,8 @@
       <c r="J13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="6" t="s">
+      <c r="K13" s="18"/>
+      <c r="L13" s="5" t="s">
         <v>60</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -1322,10 +1322,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>27</v>
@@ -1339,7 +1339,7 @@
       <c r="G14" s="4">
         <v>0.4</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>2</v>
       </c>
       <c r="I14" s="2">
@@ -1349,8 +1349,8 @@
       <c r="J14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="6" t="s">
+      <c r="K14" s="17"/>
+      <c r="L14" s="5" t="s">
         <v>50</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -1358,40 +1358,43 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Project/RCC_PM_RiskManagementLog.xlsx
+++ b/Project/RCC_PM_RiskManagementLog.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vienthong\Desktop\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lam\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB98791-57E8-4EE7-B178-D212FAF8C6BD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Thành viên trong nhóm dự án nghi đột ngột</t>
   </si>
@@ -33,33 +41,6 @@
     <t>Kiểm thử các chức năng chưa đủ</t>
   </si>
   <si>
-    <t>RI_01</t>
-  </si>
-  <si>
-    <t>RI_02</t>
-  </si>
-  <si>
-    <t>RI_03</t>
-  </si>
-  <si>
-    <t>RI_04</t>
-  </si>
-  <si>
-    <t>RI_05</t>
-  </si>
-  <si>
-    <t>RI_06</t>
-  </si>
-  <si>
-    <t>RI_07</t>
-  </si>
-  <si>
-    <t>RI_09</t>
-  </si>
-  <si>
-    <t>RI_10</t>
-  </si>
-  <si>
     <t>Xung đột giữa các thành viên</t>
   </si>
   <si>
@@ -150,12 +131,6 @@
     <t>Yêu cầu có sự thay đổi</t>
   </si>
   <si>
-    <t>Thiết bị hỏng trong lúc thực hiện dự án</t>
-  </si>
-  <si>
-    <t>Thiết bị không tương thích với hệ thống</t>
-  </si>
-  <si>
     <t>Lịch trình bị trễ với tiến độ đã lên kế hoạch</t>
   </si>
   <si>
@@ -165,45 +140,24 @@
     <t>Những dữ liệu ( có thể bao gồm tài liệu, dữ liệu của hệ thống) bị mất trong lúc thực hiện dự án</t>
   </si>
   <si>
-    <t>Thiết bị xảy ra sự cố trong khi thực hiện dự án</t>
-  </si>
-  <si>
-    <t>Tích hợp thiết bị vào các chức năng của hệ thống bị lỗi</t>
-  </si>
-  <si>
     <t>Tiếp tục khai phá yêu cầu và cập nhật vào Product Backlog để tiếp tục thực hiện</t>
   </si>
   <si>
     <t>Khách hàng đột nhiên thay đổi yêu cầu hoặc thêm yêu cầu</t>
   </si>
   <si>
-    <t>Hoai Cao</t>
-  </si>
-  <si>
     <t>Hau Vo</t>
   </si>
   <si>
-    <t>Phuoc Le</t>
-  </si>
-  <si>
-    <t>Bao Bui</t>
-  </si>
-  <si>
     <t>Tiến hành đẩy mạnh năng suất làm việc và tăng thời gian làm các công việc để chạy kịp với tiến độ</t>
   </si>
   <si>
     <t>Bảo mật, sao lưu dữ liệu trên Drive và Database để tránh tình trạng thất thoát</t>
   </si>
   <si>
-    <t>Lập quỷ ngân sách cố định để bổ sung thiết bị thay thế khi hỏng, trình bày với người hướng dẫn để được sự trợ giúp</t>
-  </si>
-  <si>
     <t>Phân tách, chạy kiểm thử và cập nhật lại kế hoạch kiểm thử các module đầy đủ</t>
   </si>
   <si>
-    <t>Các thành viên trong nhóm sẽ họp lại để xem xét vấn đề và nhờ sự trợ giúp từ người hướng dẫn để hổ trợ giải quyết vấn đề</t>
-  </si>
-  <si>
     <t>Project Name</t>
   </si>
   <si>
@@ -211,12 +165,45 @@
   </si>
   <si>
     <t>Residential Communication Channel</t>
+  </si>
+  <si>
+    <t>Manh Truong</t>
+  </si>
+  <si>
+    <t>Lam To</t>
+  </si>
+  <si>
+    <t>Quan Ngo</t>
+  </si>
+  <si>
+    <t>An Pham</t>
+  </si>
+  <si>
+    <t>R_01</t>
+  </si>
+  <si>
+    <t>R_02</t>
+  </si>
+  <si>
+    <t>R_03</t>
+  </si>
+  <si>
+    <t>R_04</t>
+  </si>
+  <si>
+    <t>R_05</t>
+  </si>
+  <si>
+    <t>R_06</t>
+  </si>
+  <si>
+    <t>R_07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,41 +509,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,6 +638,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -686,6 +690,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -861,73 +882,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="8" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="27.7109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="10" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="10"/>
+    <col min="2" max="2" width="50.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="10" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
-    </row>
-    <row r="3" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
+    </row>
+    <row r="3" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -937,16 +958,16 @@
       <c r="L3" s="25"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+    <row r="4" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -956,65 +977,65 @@
       <c r="L4" s="25"/>
       <c r="M4" s="26"/>
     </row>
-    <row r="5" spans="1:13" s="24" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="24" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G6" s="4">
         <v>0.2</v>
@@ -1027,34 +1048,34 @@
         <v>0.4</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G7" s="4">
         <v>0.4</v>
@@ -1063,38 +1084,38 @@
         <v>4</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" ref="I7:I14" si="0" xml:space="preserve"> G7 *H7</f>
+        <f t="shared" ref="I7:I12" si="0" xml:space="preserve"> G7 *H7</f>
         <v>1.6</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="108" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G8" s="4">
         <v>0.2</v>
@@ -1107,34 +1128,34 @@
         <v>0.4</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4">
         <v>0.3</v>
@@ -1147,34 +1168,34 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K9" s="17"/>
       <c r="L9" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G10" s="4">
         <v>0.35</v>
@@ -1187,177 +1208,123 @@
         <v>1.4</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G11" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="H11" s="13">
         <v>4</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G12" s="4">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="H12" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="0"/>
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="K12" s="17"/>
       <c r="L12" s="5" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H13" s="13">
-        <v>3</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="H14" s="13">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -1369,32 +1336,6 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
